--- a/day0.xlsx
+++ b/day0.xlsx
@@ -5,19 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="vpc" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="vlans" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="vlan-names" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="portchannels" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="l2interfaces" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="l3interfaces" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="stp" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="nodes" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="vpc" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="vlans" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="vlan-names" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="portchannels" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="l2interfaces" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="l3interfaces" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="stp" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">vpc!$A$2:$E$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">vpc!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="137">
   <si>
     <t xml:space="preserve">node</t>
   </si>
@@ -37,6 +38,30 @@
     <t xml:space="preserve">address</t>
   </si>
   <si>
+    <t xml:space="preserve">N9K1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.44</t>
+  </si>
+  <si>
     <t xml:space="preserve">role</t>
   </si>
   <si>
@@ -49,37 +74,109 @@
     <t xml:space="preserve">gw-enabled</t>
   </si>
   <si>
-    <t xml:space="preserve">N9K1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.1.41</t>
-  </si>
-  <si>
     <t xml:space="preserve">Primary</t>
   </si>
   <si>
     <t xml:space="preserve">e1/35,e1/36</t>
   </si>
   <si>
-    <t xml:space="preserve">N9K2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.1.42</t>
-  </si>
-  <si>
     <t xml:space="preserve">Secondary</t>
   </si>
   <si>
-    <t xml:space="preserve">N9K3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.1.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N9K4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.1.44</t>
+    <t xml:space="preserve">N9K5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.60</t>
   </si>
   <si>
     <t xml:space="preserve">vlans</t>
@@ -91,6 +188,30 @@
     <t xml:space="preserve">800-900,1001-1007</t>
   </si>
   <si>
+    <t xml:space="preserve">500-600,1001-1007,2001,2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800-900,1001-1008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500-600,1001-1007,2001,2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800-900,1001-1009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500-600,1001-1007,2001,2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800-900,1001-1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500-600,1001-1007,2001,2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800-900,1001-1011</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
@@ -298,25 +419,7 @@
     <t xml:space="preserve">name(mst)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">revision</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(mst)</t>
-    </r>
+    <t xml:space="preserve">revision(mst)</t>
   </si>
   <si>
     <t xml:space="preserve">instance</t>
@@ -348,7 +451,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -377,12 +480,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -436,12 +533,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,10 +547,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -539,10 +632,77 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="1" sqref="E6 E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.82"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -564,30 +724,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>10</v>
@@ -599,16 +759,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>10</v>
@@ -620,16 +780,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>11</v>
@@ -641,21 +801,357 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>11</v>
       </c>
       <c r="F5" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -671,15 +1167,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="E6 B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -692,39 +1188,167 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -738,15 +1362,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="E6 C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -759,10 +1383,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,7 +1394,7 @@
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,7 +1402,7 @@
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,7 +1410,7 @@
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,7 +1418,7 @@
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,7 +1426,7 @@
         <v>1005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,7 +1434,7 @@
         <v>1006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -818,7 +1442,7 @@
         <v>1007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -832,18 +1456,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="E6 B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.55"/>
@@ -856,30 +1480,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D2" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -890,18 +1514,18 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D3" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -912,18 +1536,18 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -934,18 +1558,18 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -956,18 +1580,18 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
+      <c r="A6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D6" s="3" t="n">
         <f aca="false">FALSE()</f>
@@ -978,18 +1602,18 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
+      <c r="A7" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3" t="n">
         <f aca="false">FALSE()</f>
@@ -1000,416 +1624,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M9"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="1" sqref="E6 H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.32"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>9216</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>2001</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>9216</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>9216</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>2002</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>9216</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>2001</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>9216</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>9216</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>2002</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1428,18 +1643,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,358 +1668,374 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1001</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>9216</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1002</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>9216</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1005</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="I4" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>9216</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1006</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="I5" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1001</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>9216</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>1002</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>9216</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1003</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>9216</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1004</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>1004</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>95</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1815,13 +2052,400 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:I1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.94"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="1" sqref="E6 F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.6"/>
@@ -1833,36 +2457,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0</v>
@@ -1870,16 +2494,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>4096</v>
@@ -1887,16 +2511,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>8192</v>
@@ -1904,16 +2528,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0</v>
@@ -1921,16 +2545,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>4096</v>
@@ -1938,16 +2562,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>8192</v>
@@ -1955,13 +2579,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -1970,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0</v>
@@ -1978,13 +2602,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -1993,7 +2617,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>4096</v>
@@ -2001,13 +2625,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -2016,7 +2640,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>8192</v>
@@ -2024,13 +2648,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
@@ -2039,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>0</v>
@@ -2047,13 +2671,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
@@ -2062,7 +2686,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>4096</v>
@@ -2070,13 +2694,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
@@ -2085,7 +2709,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>8192</v>

--- a/day0.xlsx
+++ b/day0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="vpc" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
   <si>
     <t xml:space="preserve">node</t>
   </si>
@@ -178,6 +178,9 @@
     <t xml:space="preserve">To-Host2</t>
   </si>
   <si>
+    <t xml:space="preserve">port-channel1000</t>
+  </si>
+  <si>
     <t xml:space="preserve">vlan-id</t>
   </si>
   <si>
@@ -214,6 +217,18 @@
     <t xml:space="preserve">192.168.2.101/24</t>
   </si>
   <si>
+    <t xml:space="preserve">192.168.3.100/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vrrp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.3.101/24</t>
+  </si>
+  <si>
     <t xml:space="preserve">name(mst)</t>
   </si>
   <si>
@@ -223,7 +238,16 @@
     <t xml:space="preserve">instance</t>
   </si>
   <si>
-    <t xml:space="preserve">pvst+</t>
+    <t xml:space="preserve">mst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deneme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1001-1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1011-1020</t>
   </si>
 </sst>
 </file>
@@ -347,8 +371,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -497,7 +521,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -566,7 +590,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -660,7 +684,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -795,16 +819,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.96"/>
@@ -869,13 +893,16 @@
       <c r="D2" s="1" t="n">
         <v>1002</v>
       </c>
-      <c r="F2" s="2" t="b">
+      <c r="F2" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="b">
+      <c r="G2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
@@ -939,6 +966,52 @@
         <v>48</v>
       </c>
       <c r="M3" s="0" t="n">
+        <v>9216</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="0" t="n">
         <v>9216</v>
       </c>
     </row>
@@ -961,7 +1034,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -977,28 +1050,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,20 +1082,20 @@
         <v>1002</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>200</v>
@@ -1040,20 +1113,20 @@
         <v>1002</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>150</v>
@@ -1064,22 +1137,66 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
-      <c r="C5" s="0"/>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
@@ -1135,74 +1252,226 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>55</v>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="0" t="n">
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>4096</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>4096</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
